--- a/my_rpg_support/recursos/Rpg_1/Itens_magias_consumiveis.xlsx
+++ b/my_rpg_support/recursos/Rpg_1/Itens_magias_consumiveis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\flutter\my_rpg_support\recursos\historia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\MyRpg\MyRpg-support\my_rpg_support\recursos\Rpg_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ABB049-EE64-426E-A579-4ED085488AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26665B3-33B0-4453-B016-402229A24E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Items</t>
   </si>
@@ -58,6 +58,144 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>Pão</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Cura +1 de hp</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Carne de monstro</t>
+  </si>
+  <si>
+    <t>Poção de cura media</t>
+  </si>
+  <si>
+    <t>Poção de cura peq.</t>
+  </si>
+  <si>
+    <t>Poção de cura grand.</t>
+  </si>
+  <si>
+    <t>Cura +10 de hp</t>
+  </si>
+  <si>
+    <t>Cura +20 de hp</t>
+  </si>
+  <si>
+    <t>Cura +30 de hp</t>
+  </si>
+  <si>
+    <t>Poção de mp</t>
+  </si>
+  <si>
+    <t>Cura +10 de mp</t>
+  </si>
+  <si>
+    <t>Poção de mp grande</t>
+  </si>
+  <si>
+    <t>Cura +20 de mp</t>
+  </si>
+  <si>
+    <t>G/P/E/A</t>
+  </si>
+  <si>
+    <t>G/P</t>
+  </si>
+  <si>
+    <t>Espada pesada de ferro</t>
+  </si>
+  <si>
+    <t>Espada leve de ferro</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>E/A</t>
+  </si>
+  <si>
+    <t>Varinha de madeira de carvalho</t>
+  </si>
+  <si>
+    <t>M/C</t>
+  </si>
+  <si>
+    <t>Varinha de madeira de stritk</t>
+  </si>
+  <si>
+    <t>Varinha de madeira encantada</t>
+  </si>
+  <si>
+    <t>Escudo de ferro peq.</t>
+  </si>
+  <si>
+    <t>G/P/E</t>
+  </si>
+  <si>
+    <t>Escudo de ferro grand.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Arco de madeira de carvalho</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Arco de madeira encantada</t>
+  </si>
+  <si>
+    <t>Adaga de arremeço</t>
+  </si>
+  <si>
+    <t>Shuriken</t>
+  </si>
+  <si>
+    <t>Causa 5 de dano, jogar dado de 12 lados, escolher par ou impar, se cair acerta (Elfo tem rerrolar)</t>
+  </si>
+  <si>
+    <t>Causa 2 de dano, jogar dado de 6 lados, maior ou menor igual a 3, se cair acerta (Elfo tem rerrolar)</t>
+  </si>
+  <si>
+    <t>Armadura de malha</t>
+  </si>
+  <si>
+    <t>Armadura de ferro</t>
+  </si>
+  <si>
+    <t>Armadura de ferro pesada</t>
+  </si>
+  <si>
+    <t>P/G/E</t>
+  </si>
+  <si>
+    <t>Armadura de ferro fundido</t>
+  </si>
+  <si>
+    <t>P/G</t>
+  </si>
+  <si>
+    <t>Armadura de couro</t>
+  </si>
+  <si>
+    <t>M/C/A</t>
+  </si>
+  <si>
+    <t>Armadura de adamantina</t>
+  </si>
+  <si>
+    <t>Apenas vende-se</t>
   </si>
 </sst>
 </file>
@@ -94,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,19 +251,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,86 +560,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>210</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>530</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="35">
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="J35:R35"/>
+    <mergeCell ref="J26:R26"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="J24:R24"/>
+    <mergeCell ref="J25:R25"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="J11:R11"/>
+    <mergeCell ref="J12:R12"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="J10:R10"/>
     <mergeCell ref="J2:R2"/>
     <mergeCell ref="A1:R1"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>